--- a/templates/dataplant/ENA/ENA_-_Plant_sample.xlsx
+++ b/templates/dataplant/ENA/ENA_-_Plant_sample.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024F11BF-B75D-4906-AE52-A63DF9DB6569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B808E192-C262-4A6D-B623-4ADE0B92D62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -252,18 +252,12 @@
     <t>Term Accession Number (PO:0009011)</t>
   </si>
   <si>
-    <t>Characteristic [plant growth medium]</t>
-  </si>
-  <si>
     <t>Term Source REF (PECO:0007147)</t>
   </si>
   <si>
     <t>Term Accession Number (PECO:0007147)</t>
   </si>
   <si>
-    <t>Characteristic [isolation and growth condition]</t>
-  </si>
-  <si>
     <t>Term Source REF (DPBO:0000030)</t>
   </si>
   <si>
@@ -280,6 +274,12 @@
   </si>
   <si>
     <t>sample1</t>
+  </si>
+  <si>
+    <t>Parameter [plant growth medium]</t>
+  </si>
+  <si>
+    <t>Parameter [isolation and growth condition]</t>
   </si>
 </sst>
 </file>
@@ -335,35 +335,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6B68BFAF-B2D0-41E6-9A57-08F0CEC6C26E}" name="annotationTable" displayName="annotationTable" ref="A1:Z2">
-  <autoFilter ref="A1:Z2" xr:uid="{6B68BFAF-B2D0-41E6-9A57-08F0CEC6C26E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95BB08DC-3CB9-44AE-B062-8334CF59060B}" name="annotationTable3" displayName="annotationTable3" ref="A1:Z2">
+  <autoFilter ref="A1:Z2" xr:uid="{95BB08DC-3CB9-44AE-B062-8334CF59060B}"/>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{37396D13-7BAE-4F56-A162-22CCDD4F74CF}" name="Input [Source Name]" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{BF496818-64E5-4639-B575-904B80EF8CFB}" name="Characteristic [plant developmental stage]"/>
-    <tableColumn id="3" xr3:uid="{B274268C-7F5C-4BA7-BF59-AAA8F0BFEA46}" name="Term Source REF (PO:0009012)"/>
-    <tableColumn id="4" xr3:uid="{47E7F35C-7F29-4A4B-A8D5-8DB14A2F85A4}" name="Term Accession Number (PO:0009012)"/>
-    <tableColumn id="5" xr3:uid="{F3883B8D-D94E-41EC-AEB9-34474EB3A52D}" name="Characteristic [collection date]"/>
-    <tableColumn id="6" xr3:uid="{147DA807-1B8B-4F5A-9FFD-41EE83C5981F}" name="Term Source REF (GENEPIO:0001174)"/>
-    <tableColumn id="7" xr3:uid="{4F7672A0-F28E-4BC5-BAE2-458B2F1EFAD3}" name="Term Accession Number (GENEPIO:0001174)"/>
-    <tableColumn id="8" xr3:uid="{6FA6F673-E096-4E89-B34B-7AF57FF71DA2}" name="Characteristic [geographic location (country and/or sea)]"/>
-    <tableColumn id="9" xr3:uid="{A8467E38-1F92-49EF-9068-8DF470A3BA49}" name="Term Source REF (DPBO:0000074)"/>
-    <tableColumn id="10" xr3:uid="{7751AE87-43B6-4D2C-9DE7-52C1521E6312}" name="Term Accession Number (DPBO:0000074)"/>
-    <tableColumn id="11" xr3:uid="{B3B0BF09-DA35-4BAB-9DD1-E4B63DE573C8}" name="Characteristic [geographic location (latitude)]"/>
-    <tableColumn id="12" xr3:uid="{9C9544AB-B42A-428C-91C1-80D46549E7EF}" name="Term Source REF (SIO:000319)"/>
-    <tableColumn id="13" xr3:uid="{089AE1E3-946D-445C-897F-EB77EDB53DF0}" name="Term Accession Number (SIO:000319)"/>
-    <tableColumn id="14" xr3:uid="{7D99D928-01E8-408D-8923-FF81303426D2}" name="Characteristic [geographic location (longitude)]"/>
-    <tableColumn id="15" xr3:uid="{5E5A4C3E-FADA-467B-A186-F626BF588D74}" name="Term Source REF (SIO:000318)"/>
-    <tableColumn id="16" xr3:uid="{DDB934E8-C514-441B-AD46-24AF8D50B96B}" name="Term Accession Number (SIO:000318)"/>
-    <tableColumn id="17" xr3:uid="{A1C87E75-0B7A-4068-91B2-FC5DEFEA72E3}" name="Characteristic [plant structure]"/>
-    <tableColumn id="18" xr3:uid="{EDD1AD29-AE1A-4B18-981C-F85868F1DD97}" name="Term Source REF (PO:0009011)"/>
-    <tableColumn id="19" xr3:uid="{7E6DC88C-AD89-476E-B3EA-C66F17478E34}" name="Term Accession Number (PO:0009011)"/>
-    <tableColumn id="20" xr3:uid="{D7D5E45C-466B-410A-8869-9ABDC331AFA8}" name="Characteristic [plant growth medium]"/>
-    <tableColumn id="21" xr3:uid="{7EB267CE-AE74-481F-87CA-0D802BD253C5}" name="Term Source REF (PECO:0007147)"/>
-    <tableColumn id="22" xr3:uid="{25766F6E-0C99-439A-A7B5-0D104B40D0A4}" name="Term Accession Number (PECO:0007147)"/>
-    <tableColumn id="23" xr3:uid="{A2B85743-550D-4847-960F-EA2A0C632C73}" name="Characteristic [isolation and growth condition]"/>
-    <tableColumn id="24" xr3:uid="{2928FC9D-A4C4-453B-AF72-1CA0DBB167C0}" name="Term Source REF (DPBO:0000030)"/>
-    <tableColumn id="25" xr3:uid="{98340E43-20D1-44D2-A754-6A7E8382252A}" name="Term Accession Number (DPBO:0000030)"/>
-    <tableColumn id="26" xr3:uid="{FBF1EACB-3859-4398-B80E-4754030B8DA2}" name="Output [Sample Name]"/>
+    <tableColumn id="1" xr3:uid="{A4796DA6-2A60-49ED-B915-EF2FECB86915}" name="Input [Source Name]" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{59E474CF-0722-4AFD-B6EC-EEC689CCEFAA}" name="Characteristic [plant developmental stage]"/>
+    <tableColumn id="3" xr3:uid="{5A28259A-3EDE-4785-A555-DAE9AFBFB230}" name="Term Source REF (PO:0009012)"/>
+    <tableColumn id="4" xr3:uid="{2D63527C-9F3F-4045-8157-551C8E2354AF}" name="Term Accession Number (PO:0009012)"/>
+    <tableColumn id="5" xr3:uid="{FD8470C7-AFAB-4FE0-A4D8-B540CB471105}" name="Characteristic [collection date]"/>
+    <tableColumn id="6" xr3:uid="{70E3E6E3-F4B6-4A05-A2CD-95A434DD0FE7}" name="Term Source REF (GENEPIO:0001174)"/>
+    <tableColumn id="7" xr3:uid="{C1D0010D-0207-4820-852E-8A6AE24568A8}" name="Term Accession Number (GENEPIO:0001174)"/>
+    <tableColumn id="8" xr3:uid="{A2CC404A-C682-476C-9089-98651C983FE7}" name="Characteristic [geographic location (country and/or sea)]"/>
+    <tableColumn id="9" xr3:uid="{6BAB5678-0B5D-4F7B-95AC-6B5D39773553}" name="Term Source REF (DPBO:0000074)"/>
+    <tableColumn id="10" xr3:uid="{48D85A2E-DD8F-4E77-A2FF-9249562E82A5}" name="Term Accession Number (DPBO:0000074)"/>
+    <tableColumn id="11" xr3:uid="{5AAECE7B-3C38-4029-9364-AFBA669956EC}" name="Characteristic [geographic location (latitude)]"/>
+    <tableColumn id="12" xr3:uid="{91E158A1-CDDB-4B02-BB29-0945415A56E7}" name="Term Source REF (SIO:000319)"/>
+    <tableColumn id="13" xr3:uid="{61D0FB98-9533-4A44-B0D7-F38CBEB8BBCB}" name="Term Accession Number (SIO:000319)"/>
+    <tableColumn id="14" xr3:uid="{77940F81-E826-403E-8167-007B97C82ABF}" name="Characteristic [geographic location (longitude)]"/>
+    <tableColumn id="15" xr3:uid="{874C3BB2-160E-4651-80A0-62542510BB03}" name="Term Source REF (SIO:000318)"/>
+    <tableColumn id="16" xr3:uid="{36C5304A-856D-4F10-BE36-DBE8EE0574DE}" name="Term Accession Number (SIO:000318)"/>
+    <tableColumn id="17" xr3:uid="{E231006A-29B6-49EB-AD26-AD6A60DD227D}" name="Characteristic [plant structure]"/>
+    <tableColumn id="18" xr3:uid="{8B662B8B-1ADF-471A-B068-D6B644BC55DD}" name="Term Source REF (PO:0009011)"/>
+    <tableColumn id="19" xr3:uid="{31869039-804E-45E0-A2CC-DB8EED6E3585}" name="Term Accession Number (PO:0009011)"/>
+    <tableColumn id="20" xr3:uid="{11D0FF2C-46E0-4633-9CD7-432E852FC6E6}" name="Parameter [plant growth medium]"/>
+    <tableColumn id="21" xr3:uid="{A248FCE1-CDA0-4C9F-9040-507115B4929E}" name="Term Source REF (PECO:0007147)"/>
+    <tableColumn id="22" xr3:uid="{5A3263B5-B53C-47FE-B8E3-38C1E5150D66}" name="Term Accession Number (PECO:0007147)"/>
+    <tableColumn id="23" xr3:uid="{56D50942-6307-4E18-B556-54164820566E}" name="Parameter [isolation and growth condition]"/>
+    <tableColumn id="24" xr3:uid="{E910FE0A-A245-46C2-88CE-71E2597E0F57}" name="Term Source REF (DPBO:0000030)"/>
+    <tableColumn id="25" xr3:uid="{D7CE5AB0-63D8-4547-AAF1-ACC9563197B3}" name="Term Accession Number (DPBO:0000030)"/>
+    <tableColumn id="26" xr3:uid="{B7A8DE04-3CC1-4A07-90FC-97C4C57481AF}" name="Output [Sample Name]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -990,105 +990,105 @@
         <v>77</v>
       </c>
       <c r="T1" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1" t="s">
         <v>78</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>79</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X1" t="s">
         <v>80</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>81</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>82</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" t="s">
+        <v>84</v>
+      </c>
+      <c r="T2" t="s">
+        <v>84</v>
+      </c>
+      <c r="U2" t="s">
+        <v>84</v>
+      </c>
+      <c r="V2" t="s">
+        <v>84</v>
+      </c>
+      <c r="W2" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z2" t="s">
         <v>85</v>
-      </c>
-      <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" t="s">
-        <v>86</v>
-      </c>
-      <c r="L2" t="s">
-        <v>86</v>
-      </c>
-      <c r="M2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O2" t="s">
-        <v>86</v>
-      </c>
-      <c r="P2" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>86</v>
-      </c>
-      <c r="R2" t="s">
-        <v>86</v>
-      </c>
-      <c r="S2" t="s">
-        <v>86</v>
-      </c>
-      <c r="T2" t="s">
-        <v>86</v>
-      </c>
-      <c r="U2" t="s">
-        <v>86</v>
-      </c>
-      <c r="V2" t="s">
-        <v>86</v>
-      </c>
-      <c r="W2" t="s">
-        <v>86</v>
-      </c>
-      <c r="X2" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/templates/dataplant/ENA/ENA_-_Plant_sample.xlsx
+++ b/templates/dataplant/ENA/ENA_-_Plant_sample.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B808E192-C262-4A6D-B623-4ADE0B92D62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="isa_template" sheetId="1" r:id="rId1"/>
-    <sheet name="New Table" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="isa_template" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="New Table" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="102">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -36,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Description</t>
@@ -252,12 +248,18 @@
     <t>Term Accession Number (PO:0009011)</t>
   </si>
   <si>
+    <t>Parameter [plant growth medium]</t>
+  </si>
+  <si>
     <t>Term Source REF (PECO:0007147)</t>
   </si>
   <si>
     <t>Term Accession Number (PECO:0007147)</t>
   </si>
   <si>
+    <t>Parameter [isolation and growth condition]</t>
+  </si>
+  <si>
     <t>Term Source REF (DPBO:0000030)</t>
   </si>
   <si>
@@ -270,29 +272,65 @@
     <t>Input1</t>
   </si>
   <si>
+    <t>flowering stage</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PO_0007616</t>
+  </si>
+  <si>
+    <t>2022-08-23</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C16636</t>
+  </si>
+  <si>
+    <t>+50.55</t>
+  </si>
+  <si>
+    <t>+6.21</t>
+  </si>
+  <si>
+    <t>petiole epidermis</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PO_0000051</t>
+  </si>
+  <si>
+    <t>soil</t>
+  </si>
+  <si>
+    <t>ENVO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_00001998</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/nature22971</t>
+  </si>
+  <si>
     <t>sample1</t>
-  </si>
-  <si>
-    <t>Parameter [plant growth medium]</t>
-  </si>
-  <si>
-    <t>Parameter [isolation and growth condition]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -319,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -335,35 +373,62 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95BB08DC-3CB9-44AE-B062-8334CF59060B}" name="annotationTable3" displayName="annotationTable3" ref="A1:Z2">
-  <autoFilter ref="A1:Z2" xr:uid="{95BB08DC-3CB9-44AE-B062-8334CF59060B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:Z2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:Z2">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
+    <filterColumn colId="13" hiddenButton="1"/>
+    <filterColumn colId="14" hiddenButton="1"/>
+    <filterColumn colId="15" hiddenButton="1"/>
+    <filterColumn colId="16" hiddenButton="1"/>
+    <filterColumn colId="17" hiddenButton="1"/>
+    <filterColumn colId="18" hiddenButton="1"/>
+    <filterColumn colId="19" hiddenButton="1"/>
+    <filterColumn colId="20" hiddenButton="1"/>
+    <filterColumn colId="21" hiddenButton="1"/>
+    <filterColumn colId="22" hiddenButton="1"/>
+    <filterColumn colId="23" hiddenButton="1"/>
+    <filterColumn colId="24" hiddenButton="1"/>
+    <filterColumn colId="25" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{A4796DA6-2A60-49ED-B915-EF2FECB86915}" name="Input [Source Name]" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{59E474CF-0722-4AFD-B6EC-EEC689CCEFAA}" name="Characteristic [plant developmental stage]"/>
-    <tableColumn id="3" xr3:uid="{5A28259A-3EDE-4785-A555-DAE9AFBFB230}" name="Term Source REF (PO:0009012)"/>
-    <tableColumn id="4" xr3:uid="{2D63527C-9F3F-4045-8157-551C8E2354AF}" name="Term Accession Number (PO:0009012)"/>
-    <tableColumn id="5" xr3:uid="{FD8470C7-AFAB-4FE0-A4D8-B540CB471105}" name="Characteristic [collection date]"/>
-    <tableColumn id="6" xr3:uid="{70E3E6E3-F4B6-4A05-A2CD-95A434DD0FE7}" name="Term Source REF (GENEPIO:0001174)"/>
-    <tableColumn id="7" xr3:uid="{C1D0010D-0207-4820-852E-8A6AE24568A8}" name="Term Accession Number (GENEPIO:0001174)"/>
-    <tableColumn id="8" xr3:uid="{A2CC404A-C682-476C-9089-98651C983FE7}" name="Characteristic [geographic location (country and/or sea)]"/>
-    <tableColumn id="9" xr3:uid="{6BAB5678-0B5D-4F7B-95AC-6B5D39773553}" name="Term Source REF (DPBO:0000074)"/>
-    <tableColumn id="10" xr3:uid="{48D85A2E-DD8F-4E77-A2FF-9249562E82A5}" name="Term Accession Number (DPBO:0000074)"/>
-    <tableColumn id="11" xr3:uid="{5AAECE7B-3C38-4029-9364-AFBA669956EC}" name="Characteristic [geographic location (latitude)]"/>
-    <tableColumn id="12" xr3:uid="{91E158A1-CDDB-4B02-BB29-0945415A56E7}" name="Term Source REF (SIO:000319)"/>
-    <tableColumn id="13" xr3:uid="{61D0FB98-9533-4A44-B0D7-F38CBEB8BBCB}" name="Term Accession Number (SIO:000319)"/>
-    <tableColumn id="14" xr3:uid="{77940F81-E826-403E-8167-007B97C82ABF}" name="Characteristic [geographic location (longitude)]"/>
-    <tableColumn id="15" xr3:uid="{874C3BB2-160E-4651-80A0-62542510BB03}" name="Term Source REF (SIO:000318)"/>
-    <tableColumn id="16" xr3:uid="{36C5304A-856D-4F10-BE36-DBE8EE0574DE}" name="Term Accession Number (SIO:000318)"/>
-    <tableColumn id="17" xr3:uid="{E231006A-29B6-49EB-AD26-AD6A60DD227D}" name="Characteristic [plant structure]"/>
-    <tableColumn id="18" xr3:uid="{8B662B8B-1ADF-471A-B068-D6B644BC55DD}" name="Term Source REF (PO:0009011)"/>
-    <tableColumn id="19" xr3:uid="{31869039-804E-45E0-A2CC-DB8EED6E3585}" name="Term Accession Number (PO:0009011)"/>
-    <tableColumn id="20" xr3:uid="{11D0FF2C-46E0-4633-9CD7-432E852FC6E6}" name="Parameter [plant growth medium]"/>
-    <tableColumn id="21" xr3:uid="{A248FCE1-CDA0-4C9F-9040-507115B4929E}" name="Term Source REF (PECO:0007147)"/>
-    <tableColumn id="22" xr3:uid="{5A3263B5-B53C-47FE-B8E3-38C1E5150D66}" name="Term Accession Number (PECO:0007147)"/>
-    <tableColumn id="23" xr3:uid="{56D50942-6307-4E18-B556-54164820566E}" name="Parameter [isolation and growth condition]"/>
-    <tableColumn id="24" xr3:uid="{E910FE0A-A245-46C2-88CE-71E2597E0F57}" name="Term Source REF (DPBO:0000030)"/>
-    <tableColumn id="25" xr3:uid="{D7CE5AB0-63D8-4547-AAF1-ACC9563197B3}" name="Term Accession Number (DPBO:0000030)"/>
-    <tableColumn id="26" xr3:uid="{B7A8DE04-3CC1-4A07-90FC-97C4C57481AF}" name="Output [Sample Name]"/>
+    <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Characteristic [plant developmental stage]" totalsRowFunction="none"/>
+    <tableColumn id="3" name="Term Source REF (PO:0009012)" totalsRowFunction="none"/>
+    <tableColumn id="4" name="Term Accession Number (PO:0009012)" totalsRowFunction="none"/>
+    <tableColumn id="5" name="Characteristic [collection date]" totalsRowFunction="none"/>
+    <tableColumn id="6" name="Term Source REF (GENEPIO:0001174)" totalsRowFunction="none"/>
+    <tableColumn id="7" name="Term Accession Number (GENEPIO:0001174)" totalsRowFunction="none"/>
+    <tableColumn id="8" name="Characteristic [geographic location (country and/or sea)]" totalsRowFunction="none"/>
+    <tableColumn id="9" name="Term Source REF (DPBO:0000074)" totalsRowFunction="none"/>
+    <tableColumn id="10" name="Term Accession Number (DPBO:0000074)" totalsRowFunction="none"/>
+    <tableColumn id="11" name="Characteristic [geographic location (latitude)]" totalsRowFunction="none"/>
+    <tableColumn id="12" name="Term Source REF (SIO:000319)" totalsRowFunction="none"/>
+    <tableColumn id="13" name="Term Accession Number (SIO:000319)" totalsRowFunction="none"/>
+    <tableColumn id="14" name="Characteristic [geographic location (longitude)]" totalsRowFunction="none"/>
+    <tableColumn id="15" name="Term Source REF (SIO:000318)" totalsRowFunction="none"/>
+    <tableColumn id="16" name="Term Accession Number (SIO:000318)" totalsRowFunction="none"/>
+    <tableColumn id="17" name="Characteristic [plant structure]" totalsRowFunction="none"/>
+    <tableColumn id="18" name="Term Source REF (PO:0009011)" totalsRowFunction="none"/>
+    <tableColumn id="19" name="Term Accession Number (PO:0009011)" totalsRowFunction="none"/>
+    <tableColumn id="20" name="Parameter [plant growth medium]" totalsRowFunction="none"/>
+    <tableColumn id="21" name="Term Source REF (PECO:0007147)" totalsRowFunction="none"/>
+    <tableColumn id="22" name="Term Accession Number (PECO:0007147)" totalsRowFunction="none"/>
+    <tableColumn id="23" name="Parameter [isolation and growth condition]" totalsRowFunction="none"/>
+    <tableColumn id="24" name="Term Source REF (DPBO:0000030)" totalsRowFunction="none"/>
+    <tableColumn id="25" name="Term Accession Number (DPBO:0000030)" totalsRowFunction="none"/>
+    <tableColumn id="26" name="Output [Sample Name]" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -665,19 +730,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -685,7 +747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -693,7 +755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -701,7 +763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -709,7 +771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -717,7 +779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -725,12 +787,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -738,7 +800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -746,7 +808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -754,12 +816,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -785,7 +847,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -808,7 +870,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -831,12 +893,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -847,7 +909,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -858,12 +920,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -874,22 +936,22 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -900,38 +962,33 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:Z2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -990,110 +1047,110 @@
         <v>77</v>
       </c>
       <c r="T1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V1" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1" t="s">
+        <v>81</v>
+      </c>
+      <c r="X1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
         <v>86</v>
       </c>
-      <c r="U1" t="s">
-        <v>78</v>
-      </c>
-      <c r="V1" t="s">
-        <v>79</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="C2" t="s">
         <v>87</v>
       </c>
-      <c r="X1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>84</v>
-      </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="K2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="L2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="N2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="Q2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="R2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="S2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="T2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="U2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="V2" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="W2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="X2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="Y2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="Z2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/templates/dataplant/ENA/ENA_-_Plant_sample.xlsx
+++ b/templates/dataplant/ENA/ENA_-_Plant_sample.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.0.2</t>
   </si>
   <si>
     <t>Description</t>
@@ -194,7 +194,7 @@
     <t>Input [Source Name]</t>
   </si>
   <si>
-    <t>Characteristic [plant developmental stage]</t>
+    <t>Characteristic [plant structure development stage]</t>
   </si>
   <si>
     <t>Term Source REF (PO:0009012)</t>
@@ -203,7 +203,7 @@
     <t>Term Accession Number (PO:0009012)</t>
   </si>
   <si>
-    <t>Characteristic [collection date]</t>
+    <t>Characteristic [sample collection date]</t>
   </si>
   <si>
     <t>Term Source REF (GENEPIO:0001174)</t>
@@ -212,7 +212,7 @@
     <t>Term Accession Number (GENEPIO:0001174)</t>
   </si>
   <si>
-    <t>Characteristic [geographic location (country and/or sea)]</t>
+    <t>Characteristic [geographic area]</t>
   </si>
   <si>
     <t>Term Source REF (DPBO:0000074)</t>
@@ -221,7 +221,7 @@
     <t>Term Accession Number (DPBO:0000074)</t>
   </si>
   <si>
-    <t>Characteristic [geographic location (latitude)]</t>
+    <t>Characteristic [latitude]</t>
   </si>
   <si>
     <t>Term Source REF (SIO:000319)</t>
@@ -230,7 +230,7 @@
     <t>Term Accession Number (SIO:000319)</t>
   </si>
   <si>
-    <t>Characteristic [geographic location (longitude)]</t>
+    <t>Characteristic [longitude]</t>
   </si>
   <si>
     <t>Term Source REF (SIO:000318)</t>
@@ -248,7 +248,7 @@
     <t>Term Accession Number (PO:0009011)</t>
   </si>
   <si>
-    <t>Parameter [plant growth medium]</t>
+    <t>Parameter [plant growth medium exposure]</t>
   </si>
   <si>
     <t>Term Source REF (PECO:0007147)</t>
@@ -278,7 +278,7 @@
     <t>PO</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/PO_0007616</t>
+    <t>https://www.ebi.ac.uk/ols4/ontologies/po/classes/http%253A%252F%252Fpurl.obolibrary.org%252Fobo%252FPO_0007616</t>
   </si>
   <si>
     <t>2022-08-23</t>
@@ -290,7 +290,7 @@
     <t>Germany</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C16636</t>
+    <t>https://bioregistry.io/NCIT:C16636</t>
   </si>
   <si>
     <t>+50.55</t>
@@ -302,7 +302,7 @@
     <t>petiole epidermis</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/PO_0000051</t>
+    <t>https://www.ebi.ac.uk/ols4/ontologies/po/classes/http%253A%252F%252Fpurl.obolibrary.org%252Fobo%252FPO_0000051</t>
   </si>
   <si>
     <t>soil</t>
@@ -311,7 +311,7 @@
     <t>ENVO</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/ENVO_00001998</t>
+    <t>https://bioregistry.io/ENVO:00001998</t>
   </si>
   <si>
     <t>https://doi.org/10.1038/nature22971</t>
@@ -404,25 +404,25 @@
   </autoFilter>
   <tableColumns count="26">
     <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Characteristic [plant developmental stage]" totalsRowFunction="none"/>
+    <tableColumn id="2" name="Characteristic [plant structure development stage]" totalsRowFunction="none"/>
     <tableColumn id="3" name="Term Source REF (PO:0009012)" totalsRowFunction="none"/>
     <tableColumn id="4" name="Term Accession Number (PO:0009012)" totalsRowFunction="none"/>
-    <tableColumn id="5" name="Characteristic [collection date]" totalsRowFunction="none"/>
+    <tableColumn id="5" name="Characteristic [sample collection date]" totalsRowFunction="none"/>
     <tableColumn id="6" name="Term Source REF (GENEPIO:0001174)" totalsRowFunction="none"/>
     <tableColumn id="7" name="Term Accession Number (GENEPIO:0001174)" totalsRowFunction="none"/>
-    <tableColumn id="8" name="Characteristic [geographic location (country and/or sea)]" totalsRowFunction="none"/>
+    <tableColumn id="8" name="Characteristic [geographic area]" totalsRowFunction="none"/>
     <tableColumn id="9" name="Term Source REF (DPBO:0000074)" totalsRowFunction="none"/>
     <tableColumn id="10" name="Term Accession Number (DPBO:0000074)" totalsRowFunction="none"/>
-    <tableColumn id="11" name="Characteristic [geographic location (latitude)]" totalsRowFunction="none"/>
+    <tableColumn id="11" name="Characteristic [latitude]" totalsRowFunction="none"/>
     <tableColumn id="12" name="Term Source REF (SIO:000319)" totalsRowFunction="none"/>
     <tableColumn id="13" name="Term Accession Number (SIO:000319)" totalsRowFunction="none"/>
-    <tableColumn id="14" name="Characteristic [geographic location (longitude)]" totalsRowFunction="none"/>
+    <tableColumn id="14" name="Characteristic [longitude]" totalsRowFunction="none"/>
     <tableColumn id="15" name="Term Source REF (SIO:000318)" totalsRowFunction="none"/>
     <tableColumn id="16" name="Term Accession Number (SIO:000318)" totalsRowFunction="none"/>
     <tableColumn id="17" name="Characteristic [plant structure]" totalsRowFunction="none"/>
     <tableColumn id="18" name="Term Source REF (PO:0009011)" totalsRowFunction="none"/>
     <tableColumn id="19" name="Term Accession Number (PO:0009011)" totalsRowFunction="none"/>
-    <tableColumn id="20" name="Parameter [plant growth medium]" totalsRowFunction="none"/>
+    <tableColumn id="20" name="Parameter [plant growth medium exposure]" totalsRowFunction="none"/>
     <tableColumn id="21" name="Term Source REF (PECO:0007147)" totalsRowFunction="none"/>
     <tableColumn id="22" name="Term Accession Number (PECO:0007147)" totalsRowFunction="none"/>
     <tableColumn id="23" name="Parameter [isolation and growth condition]" totalsRowFunction="none"/>

--- a/templates/dataplant/ENA/ENA_-_Plant_sample.xlsx
+++ b/templates/dataplant/ENA/ENA_-_Plant_sample.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="120">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.2</t>
+    <t>1.0.3</t>
   </si>
   <si>
     <t>Description</t>
@@ -194,6 +194,24 @@
     <t>Input [Source Name]</t>
   </si>
   <si>
+    <t>Characteristic [organism]</t>
+  </si>
+  <si>
+    <t>Term Source REF (OBI:0100026)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (OBI:0100026)</t>
+  </si>
+  <si>
+    <t>Characteristic [taxonomy: NCBI TaxID]</t>
+  </si>
+  <si>
+    <t>Term Source REF (MS:1001467)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (MS:1001467)</t>
+  </si>
+  <si>
     <t>Characteristic [plant structure development stage]</t>
   </si>
   <si>
@@ -266,12 +284,45 @@
     <t>Term Accession Number (DPBO:0000030)</t>
   </si>
   <si>
+    <t>Characteristic [Sample description]</t>
+  </si>
+  <si>
+    <t>Term Source REF (MIAPPE:0079)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (MIAPPE:0079)</t>
+  </si>
+  <si>
+    <t>Characteristic [Sample ID]</t>
+  </si>
+  <si>
+    <t>Term Source REF (MIAPPE:0076)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (MIAPPE:0076)</t>
+  </si>
+  <si>
     <t>Output [Sample Name]</t>
   </si>
   <si>
     <t>Input1</t>
   </si>
   <si>
+    <t>Zea mays</t>
+  </si>
+  <si>
+    <t>NCBITAXON</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITAXON_4577</t>
+  </si>
+  <si>
+    <t>4577</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>flowering stage</t>
   </si>
   <si>
@@ -284,9 +335,6 @@
     <t>2022-08-23</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
@@ -299,10 +347,10 @@
     <t>+6.21</t>
   </si>
   <si>
-    <t>petiole epidermis</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ols4/ontologies/po/classes/http%253A%252F%252Fpurl.obolibrary.org%252Fobo%252FPO_0000051</t>
+    <t>flag leaf</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ols4/ontologies/po/classes/http%253A%252F%252Fpurl.obolibrary.org%252Fobo%252FPO_0020103</t>
   </si>
   <si>
     <t>soil</t>
@@ -315,6 +363,12 @@
   </si>
   <si>
     <t>https://doi.org/10.1038/nature22971</t>
+  </si>
+  <si>
+    <t>apical 10 cm of the flag leaf, frozen in liquid nitrogen</t>
+  </si>
+  <si>
+    <t>Sp1</t>
   </si>
   <si>
     <t>sample1</t>
@@ -373,8 +427,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:Z2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:Z2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:AL2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:AL2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -401,34 +455,58 @@
     <filterColumn colId="23" hiddenButton="1"/>
     <filterColumn colId="24" hiddenButton="1"/>
     <filterColumn colId="25" hiddenButton="1"/>
+    <filterColumn colId="26" hiddenButton="1"/>
+    <filterColumn colId="27" hiddenButton="1"/>
+    <filterColumn colId="28" hiddenButton="1"/>
+    <filterColumn colId="29" hiddenButton="1"/>
+    <filterColumn colId="30" hiddenButton="1"/>
+    <filterColumn colId="31" hiddenButton="1"/>
+    <filterColumn colId="32" hiddenButton="1"/>
+    <filterColumn colId="33" hiddenButton="1"/>
+    <filterColumn colId="34" hiddenButton="1"/>
+    <filterColumn colId="35" hiddenButton="1"/>
+    <filterColumn colId="36" hiddenButton="1"/>
+    <filterColumn colId="37" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="26">
+  <tableColumns count="38">
     <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Characteristic [plant structure development stage]" totalsRowFunction="none"/>
-    <tableColumn id="3" name="Term Source REF (PO:0009012)" totalsRowFunction="none"/>
-    <tableColumn id="4" name="Term Accession Number (PO:0009012)" totalsRowFunction="none"/>
-    <tableColumn id="5" name="Characteristic [sample collection date]" totalsRowFunction="none"/>
-    <tableColumn id="6" name="Term Source REF (GENEPIO:0001174)" totalsRowFunction="none"/>
-    <tableColumn id="7" name="Term Accession Number (GENEPIO:0001174)" totalsRowFunction="none"/>
-    <tableColumn id="8" name="Characteristic [geographic area]" totalsRowFunction="none"/>
-    <tableColumn id="9" name="Term Source REF (DPBO:0000074)" totalsRowFunction="none"/>
-    <tableColumn id="10" name="Term Accession Number (DPBO:0000074)" totalsRowFunction="none"/>
-    <tableColumn id="11" name="Characteristic [latitude]" totalsRowFunction="none"/>
-    <tableColumn id="12" name="Term Source REF (SIO:000319)" totalsRowFunction="none"/>
-    <tableColumn id="13" name="Term Accession Number (SIO:000319)" totalsRowFunction="none"/>
-    <tableColumn id="14" name="Characteristic [longitude]" totalsRowFunction="none"/>
-    <tableColumn id="15" name="Term Source REF (SIO:000318)" totalsRowFunction="none"/>
-    <tableColumn id="16" name="Term Accession Number (SIO:000318)" totalsRowFunction="none"/>
-    <tableColumn id="17" name="Characteristic [plant structure]" totalsRowFunction="none"/>
-    <tableColumn id="18" name="Term Source REF (PO:0009011)" totalsRowFunction="none"/>
-    <tableColumn id="19" name="Term Accession Number (PO:0009011)" totalsRowFunction="none"/>
-    <tableColumn id="20" name="Parameter [plant growth medium exposure]" totalsRowFunction="none"/>
-    <tableColumn id="21" name="Term Source REF (PECO:0007147)" totalsRowFunction="none"/>
-    <tableColumn id="22" name="Term Accession Number (PECO:0007147)" totalsRowFunction="none"/>
-    <tableColumn id="23" name="Parameter [isolation and growth condition]" totalsRowFunction="none"/>
-    <tableColumn id="24" name="Term Source REF (DPBO:0000030)" totalsRowFunction="none"/>
-    <tableColumn id="25" name="Term Accession Number (DPBO:0000030)" totalsRowFunction="none"/>
-    <tableColumn id="26" name="Output [Sample Name]" totalsRowFunction="none"/>
+    <tableColumn id="2" name="Characteristic [organism]" totalsRowFunction="none"/>
+    <tableColumn id="3" name="Term Source REF (OBI:0100026)" totalsRowFunction="none"/>
+    <tableColumn id="4" name="Term Accession Number (OBI:0100026)" totalsRowFunction="none"/>
+    <tableColumn id="5" name="Characteristic [taxonomy: NCBI TaxID]" totalsRowFunction="none"/>
+    <tableColumn id="6" name="Term Source REF (MS:1001467)" totalsRowFunction="none"/>
+    <tableColumn id="7" name="Term Accession Number (MS:1001467)" totalsRowFunction="none"/>
+    <tableColumn id="8" name="Characteristic [plant structure development stage]" totalsRowFunction="none"/>
+    <tableColumn id="9" name="Term Source REF (PO:0009012)" totalsRowFunction="none"/>
+    <tableColumn id="10" name="Term Accession Number (PO:0009012)" totalsRowFunction="none"/>
+    <tableColumn id="11" name="Characteristic [sample collection date]" totalsRowFunction="none"/>
+    <tableColumn id="12" name="Term Source REF (GENEPIO:0001174)" totalsRowFunction="none"/>
+    <tableColumn id="13" name="Term Accession Number (GENEPIO:0001174)" totalsRowFunction="none"/>
+    <tableColumn id="14" name="Characteristic [geographic area]" totalsRowFunction="none"/>
+    <tableColumn id="15" name="Term Source REF (DPBO:0000074)" totalsRowFunction="none"/>
+    <tableColumn id="16" name="Term Accession Number (DPBO:0000074)" totalsRowFunction="none"/>
+    <tableColumn id="17" name="Characteristic [latitude]" totalsRowFunction="none"/>
+    <tableColumn id="18" name="Term Source REF (SIO:000319)" totalsRowFunction="none"/>
+    <tableColumn id="19" name="Term Accession Number (SIO:000319)" totalsRowFunction="none"/>
+    <tableColumn id="20" name="Characteristic [longitude]" totalsRowFunction="none"/>
+    <tableColumn id="21" name="Term Source REF (SIO:000318)" totalsRowFunction="none"/>
+    <tableColumn id="22" name="Term Accession Number (SIO:000318)" totalsRowFunction="none"/>
+    <tableColumn id="23" name="Characteristic [plant structure]" totalsRowFunction="none"/>
+    <tableColumn id="24" name="Term Source REF (PO:0009011)" totalsRowFunction="none"/>
+    <tableColumn id="25" name="Term Accession Number (PO:0009011)" totalsRowFunction="none"/>
+    <tableColumn id="26" name="Parameter [plant growth medium exposure]" totalsRowFunction="none"/>
+    <tableColumn id="27" name="Term Source REF (PECO:0007147)" totalsRowFunction="none"/>
+    <tableColumn id="28" name="Term Accession Number (PECO:0007147)" totalsRowFunction="none"/>
+    <tableColumn id="29" name="Parameter [isolation and growth condition]" totalsRowFunction="none"/>
+    <tableColumn id="30" name="Term Source REF (DPBO:0000030)" totalsRowFunction="none"/>
+    <tableColumn id="31" name="Term Accession Number (DPBO:0000030)" totalsRowFunction="none"/>
+    <tableColumn id="32" name="Characteristic [Sample description]" totalsRowFunction="none"/>
+    <tableColumn id="33" name="Term Source REF (MIAPPE:0079)" totalsRowFunction="none"/>
+    <tableColumn id="34" name="Term Accession Number (MIAPPE:0079)" totalsRowFunction="none"/>
+    <tableColumn id="35" name="Characteristic [Sample ID]" totalsRowFunction="none"/>
+    <tableColumn id="36" name="Term Source REF (MIAPPE:0076)" totalsRowFunction="none"/>
+    <tableColumn id="37" name="Term Accession Number (MIAPPE:0076)" totalsRowFunction="none"/>
+    <tableColumn id="38" name="Output [Sample Name]" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -985,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AL2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -1067,85 +1145,157 @@
       <c r="Z1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="I2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" t="s">
         <v>37</v>
       </c>
-      <c r="J2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2" t="s">
-        <v>90</v>
-      </c>
-      <c r="N2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O2" t="s">
-        <v>90</v>
-      </c>
       <c r="P2" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="Q2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="R2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="S2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="T2" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="U2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="V2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="X2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="Y2" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="Z2" t="s">
-        <v>101</v>
+        <v>113</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/templates/dataplant/ENA/ENA_-_Plant_sample.xlsx
+++ b/templates/dataplant/ENA/ENA_-_Plant_sample.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE7858D-40B8-4ED7-9E56-C157F09CCA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="isa_template" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="New Table" state="visible" r:id="rId5"/>
+    <sheet name="isa_template" sheetId="1" r:id="rId1"/>
+    <sheet name="Sample" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -50,9 +54,6 @@
     <t>Table</t>
   </si>
   <si>
-    <t>New Table</t>
-  </si>
-  <si>
     <t>ERS</t>
   </si>
   <si>
@@ -372,19 +373,22 @@
   </si>
   <si>
     <t>sample1</t>
+  </si>
+  <si>
+    <t>Sample</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -411,7 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -427,8 +431,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:AL2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:AL2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="annotationTable" displayName="annotationTable" ref="A1:AL2">
+  <autoFilter ref="A1:AL2" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -469,44 +473,44 @@
     <filterColumn colId="37" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="38">
-    <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Characteristic [organism]" totalsRowFunction="none"/>
-    <tableColumn id="3" name="Term Source REF (OBI:0100026)" totalsRowFunction="none"/>
-    <tableColumn id="4" name="Term Accession Number (OBI:0100026)" totalsRowFunction="none"/>
-    <tableColumn id="5" name="Characteristic [taxonomy: NCBI TaxID]" totalsRowFunction="none"/>
-    <tableColumn id="6" name="Term Source REF (MS:1001467)" totalsRowFunction="none"/>
-    <tableColumn id="7" name="Term Accession Number (MS:1001467)" totalsRowFunction="none"/>
-    <tableColumn id="8" name="Characteristic [plant structure development stage]" totalsRowFunction="none"/>
-    <tableColumn id="9" name="Term Source REF (PO:0009012)" totalsRowFunction="none"/>
-    <tableColumn id="10" name="Term Accession Number (PO:0009012)" totalsRowFunction="none"/>
-    <tableColumn id="11" name="Characteristic [sample collection date]" totalsRowFunction="none"/>
-    <tableColumn id="12" name="Term Source REF (GENEPIO:0001174)" totalsRowFunction="none"/>
-    <tableColumn id="13" name="Term Accession Number (GENEPIO:0001174)" totalsRowFunction="none"/>
-    <tableColumn id="14" name="Characteristic [geographic area]" totalsRowFunction="none"/>
-    <tableColumn id="15" name="Term Source REF (DPBO:0000074)" totalsRowFunction="none"/>
-    <tableColumn id="16" name="Term Accession Number (DPBO:0000074)" totalsRowFunction="none"/>
-    <tableColumn id="17" name="Characteristic [latitude]" totalsRowFunction="none"/>
-    <tableColumn id="18" name="Term Source REF (SIO:000319)" totalsRowFunction="none"/>
-    <tableColumn id="19" name="Term Accession Number (SIO:000319)" totalsRowFunction="none"/>
-    <tableColumn id="20" name="Characteristic [longitude]" totalsRowFunction="none"/>
-    <tableColumn id="21" name="Term Source REF (SIO:000318)" totalsRowFunction="none"/>
-    <tableColumn id="22" name="Term Accession Number (SIO:000318)" totalsRowFunction="none"/>
-    <tableColumn id="23" name="Characteristic [plant structure]" totalsRowFunction="none"/>
-    <tableColumn id="24" name="Term Source REF (PO:0009011)" totalsRowFunction="none"/>
-    <tableColumn id="25" name="Term Accession Number (PO:0009011)" totalsRowFunction="none"/>
-    <tableColumn id="26" name="Parameter [plant growth medium exposure]" totalsRowFunction="none"/>
-    <tableColumn id="27" name="Term Source REF (PECO:0007147)" totalsRowFunction="none"/>
-    <tableColumn id="28" name="Term Accession Number (PECO:0007147)" totalsRowFunction="none"/>
-    <tableColumn id="29" name="Parameter [isolation and growth condition]" totalsRowFunction="none"/>
-    <tableColumn id="30" name="Term Source REF (DPBO:0000030)" totalsRowFunction="none"/>
-    <tableColumn id="31" name="Term Accession Number (DPBO:0000030)" totalsRowFunction="none"/>
-    <tableColumn id="32" name="Characteristic [Sample description]" totalsRowFunction="none"/>
-    <tableColumn id="33" name="Term Source REF (MIAPPE:0079)" totalsRowFunction="none"/>
-    <tableColumn id="34" name="Term Accession Number (MIAPPE:0079)" totalsRowFunction="none"/>
-    <tableColumn id="35" name="Characteristic [Sample ID]" totalsRowFunction="none"/>
-    <tableColumn id="36" name="Term Source REF (MIAPPE:0076)" totalsRowFunction="none"/>
-    <tableColumn id="37" name="Term Accession Number (MIAPPE:0076)" totalsRowFunction="none"/>
-    <tableColumn id="38" name="Output [Sample Name]" totalsRowFunction="none"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Input [Source Name]" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Characteristic [organism]"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Term Source REF (OBI:0100026)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Term Accession Number (OBI:0100026)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Characteristic [taxonomy: NCBI TaxID]"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Term Source REF (MS:1001467)"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Term Accession Number (MS:1001467)"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Characteristic [plant structure development stage]"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Term Source REF (PO:0009012)"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Term Accession Number (PO:0009012)"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Characteristic [sample collection date]"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Term Source REF (GENEPIO:0001174)"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Term Accession Number (GENEPIO:0001174)"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Characteristic [geographic area]"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Term Source REF (DPBO:0000074)"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Term Accession Number (DPBO:0000074)"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Characteristic [latitude]"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Term Source REF (SIO:000319)"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Term Accession Number (SIO:000319)"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Characteristic [longitude]"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Term Source REF (SIO:000318)"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Term Accession Number (SIO:000318)"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Characteristic [plant structure]"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Term Source REF (PO:0009011)"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Term Accession Number (PO:0009011)"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Parameter [plant growth medium exposure]"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Term Source REF (PECO:0007147)"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Term Accession Number (PECO:0007147)"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Parameter [isolation and growth condition]"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Term Source REF (DPBO:0000030)"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Term Accession Number (DPBO:0000030)"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Characteristic [Sample description]"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Term Source REF (MIAPPE:0079)"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Term Accession Number (MIAPPE:0079)"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Characteristic [Sample ID]"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Term Source REF (MIAPPE:0076)"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Term Accession Number (MIAPPE:0076)"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Output [Sample Name]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -808,16 +812,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -825,7 +834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -833,7 +842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -841,7 +850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -849,7 +858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -857,450 +866,455 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>24</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>25</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>26</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>27</v>
       </c>
-      <c r="H13" t="s">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>32</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>33</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>34</v>
       </c>
-      <c r="H14" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>37</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>38</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>39</v>
       </c>
-      <c r="F15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>44</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>45</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>48</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>49</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>55</v>
       </c>
-      <c r="C24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL2"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>64</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>65</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>69</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>70</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>71</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>72</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>73</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>75</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>76</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>77</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>78</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>79</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>80</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>81</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>82</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>85</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>86</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>87</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>88</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>89</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>90</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>91</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>92</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>93</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>94</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>95</v>
       </c>
-      <c r="AL1" t="s">
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>97</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>98</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>99</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>100</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>101</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" t="s">
         <v>102</v>
       </c>
-      <c r="G2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>103</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>104</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>105</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2" t="s">
         <v>106</v>
       </c>
-      <c r="L2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M2" t="s">
-        <v>102</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
         <v>107</v>
       </c>
-      <c r="O2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>108</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
+        <v>101</v>
+      </c>
+      <c r="S2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T2" t="s">
         <v>109</v>
       </c>
-      <c r="R2" t="s">
-        <v>102</v>
-      </c>
-      <c r="S2" t="s">
-        <v>102</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>101</v>
+      </c>
+      <c r="V2" t="s">
+        <v>101</v>
+      </c>
+      <c r="W2" t="s">
         <v>110</v>
       </c>
-      <c r="U2" t="s">
-        <v>102</v>
-      </c>
-      <c r="V2" t="s">
-        <v>102</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y2" t="s">
         <v>111</v>
       </c>
-      <c r="X2" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>112</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>113</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>114</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>115</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF2" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI2" t="s">
         <v>117</v>
       </c>
-      <c r="AG2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL2" t="s">
         <v>118</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/templates/dataplant/ENA/ENA_-_Plant_sample.xlsx
+++ b/templates/dataplant/ENA/ENA_-_Plant_sample.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE7858D-40B8-4ED7-9E56-C157F09CCA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="isa_template" sheetId="1" r:id="rId1"/>
-    <sheet name="Sample" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="isa_template" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Sample" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -36,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.3</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Description</t>
@@ -54,6 +50,9 @@
     <t>Table</t>
   </si>
   <si>
+    <t>Sample</t>
+  </si>
+  <si>
     <t>ERS</t>
   </si>
   <si>
@@ -285,13 +284,13 @@
     <t>Term Accession Number (DPBO:0000030)</t>
   </si>
   <si>
-    <t>Characteristic [Sample description]</t>
-  </si>
-  <si>
-    <t>Term Source REF (MIAPPE:0079)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MIAPPE:0079)</t>
+    <t>Characteristic [sample description]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000175)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000175)</t>
   </si>
   <si>
     <t>Characteristic [Sample ID]</t>
@@ -373,22 +372,19 @@
   </si>
   <si>
     <t>sample1</t>
-  </si>
-  <si>
-    <t>Sample</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -415,7 +411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -431,8 +427,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="annotationTable" displayName="annotationTable" ref="A1:AL2">
-  <autoFilter ref="A1:AL2" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:AL2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:AL2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -473,44 +469,44 @@
     <filterColumn colId="37" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="38">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Input [Source Name]" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Characteristic [organism]"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Term Source REF (OBI:0100026)"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Term Accession Number (OBI:0100026)"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Characteristic [taxonomy: NCBI TaxID]"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Term Source REF (MS:1001467)"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Term Accession Number (MS:1001467)"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Characteristic [plant structure development stage]"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Term Source REF (PO:0009012)"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Term Accession Number (PO:0009012)"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Characteristic [sample collection date]"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Term Source REF (GENEPIO:0001174)"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Term Accession Number (GENEPIO:0001174)"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Characteristic [geographic area]"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Term Source REF (DPBO:0000074)"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Term Accession Number (DPBO:0000074)"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Characteristic [latitude]"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Term Source REF (SIO:000319)"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Term Accession Number (SIO:000319)"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Characteristic [longitude]"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Term Source REF (SIO:000318)"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Term Accession Number (SIO:000318)"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Characteristic [plant structure]"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Term Source REF (PO:0009011)"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Term Accession Number (PO:0009011)"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Parameter [plant growth medium exposure]"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Term Source REF (PECO:0007147)"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Term Accession Number (PECO:0007147)"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Parameter [isolation and growth condition]"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Term Source REF (DPBO:0000030)"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Term Accession Number (DPBO:0000030)"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Characteristic [Sample description]"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Term Source REF (MIAPPE:0079)"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Term Accession Number (MIAPPE:0079)"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Characteristic [Sample ID]"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Term Source REF (MIAPPE:0076)"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Term Accession Number (MIAPPE:0076)"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Output [Sample Name]"/>
+    <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Characteristic [organism]" totalsRowFunction="none"/>
+    <tableColumn id="3" name="Term Source REF (OBI:0100026)" totalsRowFunction="none"/>
+    <tableColumn id="4" name="Term Accession Number (OBI:0100026)" totalsRowFunction="none"/>
+    <tableColumn id="5" name="Characteristic [taxonomy: NCBI TaxID]" totalsRowFunction="none"/>
+    <tableColumn id="6" name="Term Source REF (MS:1001467)" totalsRowFunction="none"/>
+    <tableColumn id="7" name="Term Accession Number (MS:1001467)" totalsRowFunction="none"/>
+    <tableColumn id="8" name="Characteristic [plant structure development stage]" totalsRowFunction="none"/>
+    <tableColumn id="9" name="Term Source REF (PO:0009012)" totalsRowFunction="none"/>
+    <tableColumn id="10" name="Term Accession Number (PO:0009012)" totalsRowFunction="none"/>
+    <tableColumn id="11" name="Characteristic [sample collection date]" totalsRowFunction="none"/>
+    <tableColumn id="12" name="Term Source REF (GENEPIO:0001174)" totalsRowFunction="none"/>
+    <tableColumn id="13" name="Term Accession Number (GENEPIO:0001174)" totalsRowFunction="none"/>
+    <tableColumn id="14" name="Characteristic [geographic area]" totalsRowFunction="none"/>
+    <tableColumn id="15" name="Term Source REF (DPBO:0000074)" totalsRowFunction="none"/>
+    <tableColumn id="16" name="Term Accession Number (DPBO:0000074)" totalsRowFunction="none"/>
+    <tableColumn id="17" name="Characteristic [latitude]" totalsRowFunction="none"/>
+    <tableColumn id="18" name="Term Source REF (SIO:000319)" totalsRowFunction="none"/>
+    <tableColumn id="19" name="Term Accession Number (SIO:000319)" totalsRowFunction="none"/>
+    <tableColumn id="20" name="Characteristic [longitude]" totalsRowFunction="none"/>
+    <tableColumn id="21" name="Term Source REF (SIO:000318)" totalsRowFunction="none"/>
+    <tableColumn id="22" name="Term Accession Number (SIO:000318)" totalsRowFunction="none"/>
+    <tableColumn id="23" name="Characteristic [plant structure]" totalsRowFunction="none"/>
+    <tableColumn id="24" name="Term Source REF (PO:0009011)" totalsRowFunction="none"/>
+    <tableColumn id="25" name="Term Accession Number (PO:0009011)" totalsRowFunction="none"/>
+    <tableColumn id="26" name="Parameter [plant growth medium exposure]" totalsRowFunction="none"/>
+    <tableColumn id="27" name="Term Source REF (PECO:0007147)" totalsRowFunction="none"/>
+    <tableColumn id="28" name="Term Accession Number (PECO:0007147)" totalsRowFunction="none"/>
+    <tableColumn id="29" name="Parameter [isolation and growth condition]" totalsRowFunction="none"/>
+    <tableColumn id="30" name="Term Source REF (DPBO:0000030)" totalsRowFunction="none"/>
+    <tableColumn id="31" name="Term Accession Number (DPBO:0000030)" totalsRowFunction="none"/>
+    <tableColumn id="32" name="Characteristic [sample description]" totalsRowFunction="none"/>
+    <tableColumn id="33" name="Term Source REF (DPBO:0000175)" totalsRowFunction="none"/>
+    <tableColumn id="34" name="Term Accession Number (DPBO:0000175)" totalsRowFunction="none"/>
+    <tableColumn id="35" name="Characteristic [Sample ID]" totalsRowFunction="none"/>
+    <tableColumn id="36" name="Term Source REF (MIAPPE:0076)" totalsRowFunction="none"/>
+    <tableColumn id="37" name="Term Accession Number (MIAPPE:0076)" totalsRowFunction="none"/>
+    <tableColumn id="38" name="Output [Sample Name]" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -812,21 +808,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -834,7 +825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -842,7 +833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -850,7 +841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -858,7 +849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -866,455 +857,450 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
         <v>37</v>
       </c>
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" t="s">
-        <v>36</v>
-      </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AL1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L2" t="s">
         <v>102</v>
       </c>
-      <c r="I2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>109</v>
+      </c>
+      <c r="R2" t="s">
+        <v>102</v>
+      </c>
+      <c r="S2" t="s">
+        <v>102</v>
+      </c>
+      <c r="T2" t="s">
+        <v>110</v>
+      </c>
+      <c r="U2" t="s">
+        <v>102</v>
+      </c>
+      <c r="V2" t="s">
+        <v>102</v>
+      </c>
+      <c r="W2" t="s">
+        <v>111</v>
+      </c>
+      <c r="X2" t="s">
         <v>104</v>
       </c>
-      <c r="K2" t="s">
-        <v>105</v>
-      </c>
-      <c r="L2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M2" t="s">
-        <v>101</v>
-      </c>
-      <c r="N2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>108</v>
-      </c>
-      <c r="R2" t="s">
-        <v>101</v>
-      </c>
-      <c r="S2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T2" t="s">
-        <v>109</v>
-      </c>
-      <c r="U2" t="s">
-        <v>101</v>
-      </c>
-      <c r="V2" t="s">
-        <v>101</v>
-      </c>
-      <c r="W2" t="s">
-        <v>110</v>
-      </c>
-      <c r="X2" t="s">
-        <v>103</v>
-      </c>
       <c r="Y2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AB2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AH2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
